--- a/Adv Tpcs Rsrch Mthds & Dsgn/final/latent classes.xlsx
+++ b/Adv Tpcs Rsrch Mthds & Dsgn/final/latent classes.xlsx
@@ -8,13 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yichen/Desktop/courses/Adv Tpcs Rsrch Mthds &amp; Dsgn/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93129134-AC20-6D46-99F3-0E93A180962D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA8A9EC-A8BE-504A-BEDB-4182FCD1840D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{C4E90185-1205-8E4C-8877-AE68FCFDC492}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$2:$F$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$2:$E$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$F$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,49 +46,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>CDLOA</t>
+    <t>Location</t>
   </si>
   <si>
-    <t>DCOST</t>
+    <t>Cost</t>
   </si>
   <si>
-    <t>DRELY</t>
+    <t>Reliability</t>
   </si>
   <si>
-    <t>DLERN</t>
+    <t>Learning Acitivity</t>
   </si>
   <si>
-    <t>DCHIL</t>
+    <t>Time with other Kids</t>
   </si>
   <si>
-    <t>DHROP</t>
+    <t>Care during the day</t>
   </si>
   <si>
-    <t>DNBGRP</t>
+    <t>Number of other Kids</t>
   </si>
   <si>
-    <t>DRTWEB</t>
+    <t>Website Rating</t>
   </si>
   <si>
-    <t>DRECFAM</t>
+    <t>Family &amp; Friend Recommendation</t>
   </si>
   <si>
-    <t>DRELOR</t>
+    <t xml:space="preserve">Religious Orientation </t>
   </si>
   <si>
-    <t>Latent Class 1 (7.31%)</t>
+    <t>Learning &amp; Peer Oriented (10.54%)</t>
   </si>
   <si>
-    <t>Latent Class 2 (48.00%)</t>
+    <t>Mixed (32.35%)</t>
   </si>
   <si>
-    <t>Latent Class 3 (36.40%)</t>
+    <t>Relaxed (1.60%)</t>
   </si>
   <si>
-    <t>Latent Class 4 (1.42%)</t>
+    <t>Economic &amp; Convenience Oriented (6.82%)</t>
   </si>
   <si>
-    <t>Latent Class 5 (6.82%)</t>
+    <t>Demanding  (48.89%)</t>
   </si>
 </sst>
 </file>
@@ -95,11 +108,13 @@
       <sz val="12"/>
       <color rgb="FF292934"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF292934"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -245,7 +260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Latent Class 1 (7.31%)</c:v>
+                  <c:v>Learning &amp; Peer Oriented (10.54%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -268,34 +283,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>CDLOA</c:v>
+                  <c:v>Location</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DCOST</c:v>
+                  <c:v>Cost</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRELY</c:v>
+                  <c:v>Reliability</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DLERN</c:v>
+                  <c:v>Care during the day</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DCHIL</c:v>
+                  <c:v>Learning Acitivity</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>DHROP</c:v>
+                  <c:v>Number of other Kids</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>DNBGRP</c:v>
+                  <c:v>Time with other Kids</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>DRTWEB</c:v>
+                  <c:v>Website Rating</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>DRECFAM</c:v>
+                  <c:v>Family &amp; Friend Recommendation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>DRELOR</c:v>
+                  <c:v>Religious Orientation </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -316,16 +331,16 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.97399999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.98099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.55900000000000005</c:v>
@@ -355,7 +370,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Latent Class 2 (48.00%)</c:v>
+                  <c:v>Demanding  (48.89%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -378,34 +393,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>CDLOA</c:v>
+                  <c:v>Location</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DCOST</c:v>
+                  <c:v>Cost</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRELY</c:v>
+                  <c:v>Reliability</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DLERN</c:v>
+                  <c:v>Care during the day</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DCHIL</c:v>
+                  <c:v>Learning Acitivity</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>DHROP</c:v>
+                  <c:v>Number of other Kids</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>DNBGRP</c:v>
+                  <c:v>Time with other Kids</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>DRTWEB</c:v>
+                  <c:v>Website Rating</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>DRECFAM</c:v>
+                  <c:v>Family &amp; Friend Recommendation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>DRELOR</c:v>
+                  <c:v>Religious Orientation </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -426,16 +441,16 @@
                   <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.81399999999999995</c:v>
@@ -465,7 +480,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Latent Class 3 (36.40%)</c:v>
+                  <c:v>Mixed (32.35%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -488,34 +503,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>CDLOA</c:v>
+                  <c:v>Location</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DCOST</c:v>
+                  <c:v>Cost</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRELY</c:v>
+                  <c:v>Reliability</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DLERN</c:v>
+                  <c:v>Care during the day</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DCHIL</c:v>
+                  <c:v>Learning Acitivity</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>DHROP</c:v>
+                  <c:v>Number of other Kids</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>DNBGRP</c:v>
+                  <c:v>Time with other Kids</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>DRTWEB</c:v>
+                  <c:v>Website Rating</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>DRECFAM</c:v>
+                  <c:v>Family &amp; Friend Recommendation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>DRELOR</c:v>
+                  <c:v>Religious Orientation </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -536,16 +551,16 @@
                   <c:v>0.98399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.97699999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.96799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.30099999999999999</c:v>
@@ -575,7 +590,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Latent Class 4 (1.42%)</c:v>
+                  <c:v>Relaxed (1.60%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -598,34 +613,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>CDLOA</c:v>
+                  <c:v>Location</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DCOST</c:v>
+                  <c:v>Cost</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRELY</c:v>
+                  <c:v>Reliability</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DLERN</c:v>
+                  <c:v>Care during the day</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DCHIL</c:v>
+                  <c:v>Learning Acitivity</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>DHROP</c:v>
+                  <c:v>Number of other Kids</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>DNBGRP</c:v>
+                  <c:v>Time with other Kids</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>DRTWEB</c:v>
+                  <c:v>Website Rating</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>DRECFAM</c:v>
+                  <c:v>Family &amp; Friend Recommendation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>DRELOR</c:v>
+                  <c:v>Religious Orientation </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -646,16 +661,16 @@
                   <c:v>0.29899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.47699999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.44800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.248</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.5E-2</c:v>
@@ -685,7 +700,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Latent Class 5 (6.82%)</c:v>
+                  <c:v>Economic &amp; Convenience Oriented (6.82%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -708,34 +723,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>CDLOA</c:v>
+                  <c:v>Location</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DCOST</c:v>
+                  <c:v>Cost</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DRELY</c:v>
+                  <c:v>Reliability</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DLERN</c:v>
+                  <c:v>Care during the day</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DCHIL</c:v>
+                  <c:v>Learning Acitivity</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>DHROP</c:v>
+                  <c:v>Number of other Kids</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>DNBGRP</c:v>
+                  <c:v>Time with other Kids</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>DRTWEB</c:v>
+                  <c:v>Website Rating</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>DRECFAM</c:v>
+                  <c:v>Family &amp; Friend Recommendation</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>DRELOR</c:v>
+                  <c:v>Religious Orientation </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -756,16 +771,16 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.67800000000000005</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.114</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.23499999999999999</c:v>
@@ -823,11 +838,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -890,7 +905,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -932,7 +947,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1552,16 +1567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1888,14 +1903,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5674590F-8B7D-CE4C-9A23-C281DB0248AF}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1903,16 +1920,16 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1975,87 +1992,87 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.875</v>
+      </c>
+      <c r="E5">
+        <v>0.248</v>
+      </c>
+      <c r="F5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.97399999999999998</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0.997</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>0.97699999999999998</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>0.47699999999999998</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.15</v>
+      </c>
+      <c r="F7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>0.98099999999999998</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>0.98</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>0.96799999999999997</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>0.44800000000000001</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>0.114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="C7">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="D7">
-        <v>0.875</v>
-      </c>
-      <c r="E7">
-        <v>0.248</v>
-      </c>
-      <c r="F7">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="C8">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="D8">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="E8">
-        <v>0.15</v>
-      </c>
-      <c r="F8">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2075,7 +2092,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2112,7 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
